--- a/data/trans_dic/P26-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P26-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2750673200697037</v>
+        <v>0.2743339701634352</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3291787416344353</v>
+        <v>0.3264254518554413</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2799575037522941</v>
+        <v>0.2820745210631526</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1202255713274047</v>
+        <v>0.1158686983958585</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3579284684161749</v>
+        <v>0.3568203319111294</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3629647001282768</v>
+        <v>0.3620002933577307</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3276752873653665</v>
+        <v>0.3301825842507189</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1683688262983503</v>
+        <v>0.1643064360999394</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3365993613747105</v>
+        <v>0.3289352658136812</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3645012396019512</v>
+        <v>0.3615540084521384</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3260785421237433</v>
+        <v>0.3227581314453044</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.156364084819989</v>
+        <v>0.1576155169612629</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3964652231737028</v>
+        <v>0.3938021690125005</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4466637326016898</v>
+        <v>0.4449589860013948</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.402379078788059</v>
+        <v>0.3997778730326957</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.215480749769066</v>
+        <v>0.2149669004378953</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.494030114396609</v>
+        <v>0.4950672876524932</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4871003389189204</v>
+        <v>0.4846922729857014</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4486336751108435</v>
+        <v>0.452104365983126</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.25901481904692</v>
+        <v>0.2539561908330357</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4248985379130888</v>
+        <v>0.4215547319168693</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4517928482016984</v>
+        <v>0.4455745484741617</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.412146309616832</v>
+        <v>0.4079911587400647</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2214186655298316</v>
+        <v>0.2249972166036449</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.2315227627047663</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.09318986291873051</v>
+        <v>0.09318986291873053</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.3359423317857108</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2171772332162169</v>
+        <v>0.2136364601081987</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2840391604816553</v>
+        <v>0.2852365390297128</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.194451191159085</v>
+        <v>0.191409335830439</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06131307866709584</v>
+        <v>0.05984048947298578</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2929501614394004</v>
+        <v>0.2949740259526912</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3689880993456263</v>
+        <v>0.3693562570852656</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2857577945424101</v>
+        <v>0.2886650822603596</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.09730758452749648</v>
+        <v>0.0994617107900455</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2658234536574737</v>
+        <v>0.2662909332848209</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3399468740655472</v>
+        <v>0.3365465152046248</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2515950037767196</v>
+        <v>0.2515471814764253</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.08753987654957993</v>
+        <v>0.08647277679443552</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2981407432352066</v>
+        <v>0.2964217523169056</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3684963818585413</v>
+        <v>0.3712589476083109</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2675166551894032</v>
+        <v>0.272663760364353</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1420485874313165</v>
+        <v>0.1357121553639555</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3821466136758794</v>
+        <v>0.3843376950774686</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4591729996211241</v>
+        <v>0.4588159327498891</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3697737811197521</v>
+        <v>0.3738208364625229</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1537525186243325</v>
+        <v>0.1537008107915109</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.330010460920719</v>
+        <v>0.3279305083603593</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.400877143806353</v>
+        <v>0.4005749945399398</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3098010308452353</v>
+        <v>0.3068232082577614</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1364589736939049</v>
+        <v>0.1345244717419098</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.1810347560314603</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.07890605855575603</v>
+        <v>0.07890605855575604</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3819371851616908</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2233603382302427</v>
+        <v>0.2210521572470505</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3081670704211726</v>
+        <v>0.306187028035227</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1423176124688544</v>
+        <v>0.1436658109743748</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05339681334202065</v>
+        <v>0.05315529345462613</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3256879012274203</v>
+        <v>0.3332693488305496</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3053957059731652</v>
+        <v>0.3031484870546402</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.09624776322478126</v>
+        <v>0.09633068465226119</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1203503506086683</v>
+        <v>0.1196432001987332</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2890832770979858</v>
+        <v>0.2903207976357665</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3178279177719049</v>
+        <v>0.3218037456601381</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1306405106637567</v>
+        <v>0.1303254198199384</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.09746911731453146</v>
+        <v>0.09413689066484494</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.32638799644896</v>
+        <v>0.3246677825352923</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4114560685301468</v>
+        <v>0.4127546504880527</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2241359137748869</v>
+        <v>0.2271276534979447</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1145031934508513</v>
+        <v>0.1135015587891715</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4343851717085088</v>
+        <v>0.4379036880643935</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4191990991238729</v>
+        <v>0.420684027418698</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1765123325728165</v>
+        <v>0.1762560080327767</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1928609911758004</v>
+        <v>0.1925865703911706</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3680365601111588</v>
+        <v>0.3652764807742417</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3979175904511233</v>
+        <v>0.399698862566673</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1904476436232906</v>
+        <v>0.1867780952104068</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1412833193026138</v>
+        <v>0.1444852725463674</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2402914520665576</v>
+        <v>0.2381816445248262</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2431945769320861</v>
+        <v>0.2409419061327031</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.235413939500615</v>
+        <v>0.2362068099627325</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09752279748089464</v>
+        <v>0.09376723641135205</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3702537063864237</v>
+        <v>0.3660817123330889</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2518062994875655</v>
+        <v>0.251316396647471</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2419642251802569</v>
+        <v>0.2401094493752121</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.09823690217873692</v>
+        <v>0.09581450301862346</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.317419105823562</v>
+        <v>0.3217329752974755</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2607691837862549</v>
+        <v>0.2609366584748822</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2544792078660167</v>
+        <v>0.2507170213020331</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1045921140011364</v>
+        <v>0.1075537185467915</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3407774991729135</v>
+        <v>0.3395102954309686</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3443700725655837</v>
+        <v>0.3434900463489917</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3362097691442551</v>
+        <v>0.3374235039945624</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2113321192421643</v>
+        <v>0.210244747504765</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4722567327145776</v>
+        <v>0.4709786347257741</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.345611805845971</v>
+        <v>0.3447433691363936</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3434500896547866</v>
+        <v>0.3426142850779067</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1728484509355411</v>
+        <v>0.1683061776040305</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3916195046364668</v>
+        <v>0.3904314465999287</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3274986275771465</v>
+        <v>0.3269695630013718</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3293072217036727</v>
+        <v>0.325121678056131</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1736152063784149</v>
+        <v>0.1748357805153306</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2212427273005186</v>
+        <v>0.21808066570008</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2626865498613233</v>
+        <v>0.2576775733632489</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2132792564010167</v>
+        <v>0.2086873498519762</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02419702108137426</v>
+        <v>0.02421180098130274</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2409821583058765</v>
+        <v>0.2444588684822014</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3365880687655688</v>
+        <v>0.3334257523528393</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1656552736255771</v>
+        <v>0.1693897298836042</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04314692307143385</v>
+        <v>0.04331580306146655</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2486266554732015</v>
+        <v>0.2452431277478336</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3159060522169085</v>
+        <v>0.3151495566353971</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2008916422122033</v>
+        <v>0.2043635775858063</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.04104203027984973</v>
+        <v>0.04039905542604719</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3464401496251705</v>
+        <v>0.3528829534740417</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4037589988336795</v>
+        <v>0.3967025728971562</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3354881124073102</v>
+        <v>0.331632383094483</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09381715398237289</v>
+        <v>0.09350083156419473</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3736594165422945</v>
+        <v>0.380224302255965</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4743254203275139</v>
+        <v>0.4715625671964659</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2855883672336814</v>
+        <v>0.283959774216982</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0923568247101666</v>
+        <v>0.09097352444574244</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3410540027800776</v>
+        <v>0.346727427750101</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4137464390155285</v>
+        <v>0.4145146840204051</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.287584951247641</v>
+        <v>0.2870039895693254</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.07985189009191551</v>
+        <v>0.08202048320448316</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2300775169399545</v>
+        <v>0.2297227552957717</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.244700278722943</v>
+        <v>0.2488670903586357</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1885096214676362</v>
+        <v>0.1838279398182754</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.079725763866501</v>
+        <v>0.07971522308225476</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3365155158206132</v>
+        <v>0.3336648183876649</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3765873064794348</v>
+        <v>0.3752622923563217</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.245547356032669</v>
+        <v>0.2409940717240797</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.08385875951929629</v>
+        <v>0.08279148574428065</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2933941753879934</v>
+        <v>0.2969803564289498</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.3262259785288315</v>
+        <v>0.3255883665406149</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2284176232538247</v>
+        <v>0.2318684736755656</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.09170676122276303</v>
+        <v>0.09104995877617904</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3435733610949038</v>
+        <v>0.3485536201604784</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.370427295129993</v>
+        <v>0.3635162058066199</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.296734866805841</v>
+        <v>0.2931616813023534</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1597166161545122</v>
+        <v>0.1548001543479202</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4594224915693421</v>
+        <v>0.4559472502942989</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5039176920866336</v>
+        <v>0.5017305967669673</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3558531789624249</v>
+        <v>0.3578652049604243</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1524863456665378</v>
+        <v>0.1501754705217527</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3776450216497184</v>
+        <v>0.3828119000216927</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.4124133378245376</v>
+        <v>0.4090584691687849</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3102826807880704</v>
+        <v>0.3081230213978079</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1425148121821339</v>
+        <v>0.1417658472312818</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.267161855553543</v>
+        <v>0.267828512694212</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3040333081981159</v>
+        <v>0.3047085635493758</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2295452420930723</v>
+        <v>0.233057281640387</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1549680952459233</v>
+        <v>0.1579592834775715</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3430231432260266</v>
+        <v>0.3453553516009053</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3843004680910752</v>
+        <v>0.382407513423956</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2661381682745496</v>
+        <v>0.2660179158937621</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1976815057107379</v>
+        <v>0.1968150721193105</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3177607073606143</v>
+        <v>0.3173360613964728</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.355746146856381</v>
+        <v>0.3520055936886825</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.262630136561466</v>
+        <v>0.259349390949774</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1863246862252302</v>
+        <v>0.1837830167870216</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3447732798105271</v>
+        <v>0.3449045789405799</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.386358972218847</v>
+        <v>0.3858620491497004</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3073620842895416</v>
+        <v>0.3139899635434081</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2263684583615976</v>
+        <v>0.2305369186287553</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4247560419704843</v>
+        <v>0.4236583939037333</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4674084093357733</v>
+        <v>0.465225559132434</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3409648468285739</v>
+        <v>0.3436657253830451</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2563369118707921</v>
+        <v>0.2579370594973079</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3728245349646965</v>
+        <v>0.374089285214232</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.413431179234568</v>
+        <v>0.409558681601278</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3154954036516494</v>
+        <v>0.3139100351839305</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2333955803487007</v>
+        <v>0.2307200606177736</v>
       </c>
     </row>
     <row r="25">
@@ -1649,7 +1649,7 @@
         <v>0.2186816783600801</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.05822775889411705</v>
+        <v>0.05822775889411703</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2477859378968322</v>
+        <v>0.251752471868237</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2804744164250977</v>
+        <v>0.280256664106011</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1985505342313357</v>
+        <v>0.1996709497076118</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.03926269873734614</v>
+        <v>0.04095895139325334</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.310893118793317</v>
+        <v>0.3115058604351432</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3307719485445501</v>
+        <v>0.3288110460348151</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1765291564546645</v>
+        <v>0.1753820013439072</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.04301930236296456</v>
+        <v>0.04344961724166716</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2924528404208012</v>
+        <v>0.2903627654610481</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.3160934044479916</v>
+        <v>0.3178635806256752</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1969128414035218</v>
+        <v>0.1955493224974958</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.04646261850059612</v>
+        <v>0.045875778306222</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3193025958945721</v>
+        <v>0.3235039681676621</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3493147413282848</v>
+        <v>0.3509109718585309</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2638035911350821</v>
+        <v>0.2654066808866378</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.07984533101325102</v>
+        <v>0.08045093533538768</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3833559559183972</v>
+        <v>0.3798158682506045</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.4023669155405649</v>
+        <v>0.4014953511259496</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2373633166607591</v>
+        <v>0.2368317294064486</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.07568202160863631</v>
+        <v>0.07611020565415894</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.341326429831665</v>
+        <v>0.3411404052147556</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3659200213134826</v>
+        <v>0.3684624763620999</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.241903720738942</v>
+        <v>0.2406697795422404</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.07221575774497901</v>
+        <v>0.07068279141821075</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2705848050544009</v>
+        <v>0.2707574411682034</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.3106059583919552</v>
+        <v>0.313791861544638</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2374560259055203</v>
+        <v>0.2358948852814398</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.09908772796387853</v>
+        <v>0.1011531224447863</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.3528210550823786</v>
+        <v>0.3534214360958988</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.3702195277666105</v>
+        <v>0.3691918211948201</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2521939674098385</v>
+        <v>0.252025069490217</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1257563462065384</v>
+        <v>0.1257389217908425</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.3175317697436003</v>
+        <v>0.3175145461258579</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.3452798315826338</v>
+        <v>0.3461827164662653</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.2491402588457756</v>
+        <v>0.2492494024021447</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.118358105810615</v>
+        <v>0.1181300526318954</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3034906767651023</v>
+        <v>0.3052467026159444</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3447125344935202</v>
+        <v>0.3455722385912038</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2694897058107504</v>
+        <v>0.2681552675323045</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1272732680287439</v>
+        <v>0.1284429699255716</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3886787421808803</v>
+        <v>0.3874104871631546</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.4052755009581617</v>
+        <v>0.4051984659763086</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.2843944411464815</v>
+        <v>0.2819551037244463</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1485644074627164</v>
+        <v>0.1487716353345173</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.3411137268497172</v>
+        <v>0.3410233680397469</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.3707399818512888</v>
+        <v>0.3700936182335494</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.2714448013132445</v>
+        <v>0.2720735874534042</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1359317860020401</v>
+        <v>0.135930775314454</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>67006</v>
+        <v>66827</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>92473</v>
+        <v>91699</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>73449</v>
+        <v>74004</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>33349</v>
+        <v>32141</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>82760</v>
+        <v>82503</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>100583</v>
+        <v>100316</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>85668</v>
+        <v>86323</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>46470</v>
+        <v>45349</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>159823</v>
+        <v>156184</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>203404</v>
+        <v>201760</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>170799</v>
+        <v>169060</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>86530</v>
+        <v>87223</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>96579</v>
+        <v>95930</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>125476</v>
+        <v>124997</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>105567</v>
+        <v>104885</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>59772</v>
+        <v>59629</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>114229</v>
+        <v>114468</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>134983</v>
+        <v>134316</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>117291</v>
+        <v>118199</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>71489</v>
+        <v>70092</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>201749</v>
+        <v>200162</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>252116</v>
+        <v>248646</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>215881</v>
+        <v>213705</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>122531</v>
+        <v>124511</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>101578</v>
+        <v>99922</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>140113</v>
+        <v>140703</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>96014</v>
+        <v>94512</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>30617</v>
+        <v>29881</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>135508</v>
+        <v>136445</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>188561</v>
+        <v>188749</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>145452</v>
+        <v>146931</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>49328</v>
+        <v>50420</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>247291</v>
+        <v>247726</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>341412</v>
+        <v>337997</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>252293</v>
+        <v>252245</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>88090</v>
+        <v>87016</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>139446</v>
+        <v>138642</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>181774</v>
+        <v>183137</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>132092</v>
+        <v>134633</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>70932</v>
+        <v>67767</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>176768</v>
+        <v>177781</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>234648</v>
+        <v>234465</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>188216</v>
+        <v>190276</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>77942</v>
+        <v>77916</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>307003</v>
+        <v>305069</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>402605</v>
+        <v>402301</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>310660</v>
+        <v>307674</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>137316</v>
+        <v>135369</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>66668</v>
+        <v>65979</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>93563</v>
+        <v>92962</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>43780</v>
+        <v>44195</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>15812</v>
+        <v>15740</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>99270</v>
+        <v>101581</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>93564</v>
+        <v>92876</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>30663</v>
+        <v>30689</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>39689</v>
+        <v>39456</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>174398</v>
+        <v>175144</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>193869</v>
+        <v>196294</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>81807</v>
+        <v>81610</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>61006</v>
+        <v>58920</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>97419</v>
+        <v>96906</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>124923</v>
+        <v>125317</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>68949</v>
+        <v>69869</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>33907</v>
+        <v>33610</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>132401</v>
+        <v>133474</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>128430</v>
+        <v>128885</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>56233</v>
+        <v>56152</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>63602</v>
+        <v>63511</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>222028</v>
+        <v>220363</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>242723</v>
+        <v>243809</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>119258</v>
+        <v>116960</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>88429</v>
+        <v>90433</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>81528</v>
+        <v>80812</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>89163</v>
+        <v>88337</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>79771</v>
+        <v>80040</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>29687</v>
+        <v>28544</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>125619</v>
+        <v>124203</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>95055</v>
+        <v>94870</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>84906</v>
+        <v>84256</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>35255</v>
+        <v>34386</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>215389</v>
+        <v>218316</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>194045</v>
+        <v>194169</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>175530</v>
+        <v>172935</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>69374</v>
+        <v>71339</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>115621</v>
+        <v>115191</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>126257</v>
+        <v>125935</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>113926</v>
+        <v>114338</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>64331</v>
+        <v>64000</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>160226</v>
+        <v>159793</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>130466</v>
+        <v>130138</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>120518</v>
+        <v>120225</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>62031</v>
+        <v>60401</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>265739</v>
+        <v>264932</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>243700</v>
+        <v>243306</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>227143</v>
+        <v>224256</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>115156</v>
+        <v>115966</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>39660</v>
+        <v>39094</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>55852</v>
+        <v>54787</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>41459</v>
+        <v>40566</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>4587</v>
+        <v>4590</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>45172</v>
+        <v>45824</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>72430</v>
+        <v>71749</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>34518</v>
+        <v>35296</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>9466</v>
+        <v>9503</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>91175</v>
+        <v>89934</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>135147</v>
+        <v>134823</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>80911</v>
+        <v>82309</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>16784</v>
+        <v>16521</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>62104</v>
+        <v>63259</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>85846</v>
+        <v>84346</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>65215</v>
+        <v>64465</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>17784</v>
+        <v>17724</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>70043</v>
+        <v>71273</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>102069</v>
+        <v>101475</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>59508</v>
+        <v>59169</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>20262</v>
+        <v>19959</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>125069</v>
+        <v>127149</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>177003</v>
+        <v>177332</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>115827</v>
+        <v>115593</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>32655</v>
+        <v>33542</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>57711</v>
+        <v>57623</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>62988</v>
+        <v>64061</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>45287</v>
+        <v>44162</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>20032</v>
+        <v>20029</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>83425</v>
+        <v>82718</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>95714</v>
+        <v>95377</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>60646</v>
+        <v>59521</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>21346</v>
+        <v>21074</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>146328</v>
+        <v>148117</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>166888</v>
+        <v>166562</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>111289</v>
+        <v>112971</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>46386</v>
+        <v>46053</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>86180</v>
+        <v>87429</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>95351</v>
+        <v>93572</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>71287</v>
+        <v>70429</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>40130</v>
+        <v>38895</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>113894</v>
+        <v>113033</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>128077</v>
+        <v>127521</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>87889</v>
+        <v>88386</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>38815</v>
+        <v>38227</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>188348</v>
+        <v>190925</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>210979</v>
+        <v>209262</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>151176</v>
+        <v>150123</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>72084</v>
+        <v>71706</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>154153</v>
+        <v>154538</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>184889</v>
+        <v>185300</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>135346</v>
+        <v>137417</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>104326</v>
+        <v>106339</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>201654</v>
+        <v>203025</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>238668</v>
+        <v>237493</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>163393</v>
+        <v>163320</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>146062</v>
+        <v>145422</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>370152</v>
+        <v>369657</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>437272</v>
+        <v>432674</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>316093</v>
+        <v>312145</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>263106</v>
+        <v>259517</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>198936</v>
+        <v>199011</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>234953</v>
+        <v>234651</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>181229</v>
+        <v>185137</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>152393</v>
+        <v>155199</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>249703</v>
+        <v>249057</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>290282</v>
+        <v>288926</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>209333</v>
+        <v>210991</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>189401</v>
+        <v>190584</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>434295</v>
+        <v>435768</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>508176</v>
+        <v>503416</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>379720</v>
+        <v>377812</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>329574</v>
+        <v>325796</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>172381</v>
+        <v>175140</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>212565</v>
+        <v>212400</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>143768</v>
+        <v>144579</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>27793</v>
+        <v>28994</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>227354</v>
+        <v>227802</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>264749</v>
+        <v>263179</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>136654</v>
+        <v>135766</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>31185</v>
+        <v>31496</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>417323</v>
+        <v>414341</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>492560</v>
+        <v>495318</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>295016</v>
+        <v>292973</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>66571</v>
+        <v>65730</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>222134</v>
+        <v>225057</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>264738</v>
+        <v>265947</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>191017</v>
+        <v>192178</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>56521</v>
+        <v>56950</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>280346</v>
+        <v>277757</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>322053</v>
+        <v>321355</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>183747</v>
+        <v>183335</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>54862</v>
+        <v>55172</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>487065</v>
+        <v>486800</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>570203</v>
+        <v>574165</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>362421</v>
+        <v>360572</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>103469</v>
+        <v>101273</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>825789</v>
+        <v>826315</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1018936</v>
+        <v>1029387</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>748210</v>
+        <v>743291</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>316999</v>
+        <v>323606</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>1091059</v>
+        <v>1092916</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1244971</v>
+        <v>1241515</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>828038</v>
+        <v>827483</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>428741</v>
+        <v>428682</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1950996</v>
+        <v>1950890</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>2293787</v>
+        <v>2299785</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>1603038</v>
+        <v>1603740</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>782166</v>
+        <v>780659</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>926213</v>
+        <v>931572</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1130822</v>
+        <v>1133642</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>849146</v>
+        <v>844942</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>407169</v>
+        <v>410911</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1201945</v>
+        <v>1198023</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1362857</v>
+        <v>1362598</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>933763</v>
+        <v>925754</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>506501</v>
+        <v>507207</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>2095889</v>
+        <v>2095334</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>2462926</v>
+        <v>2458632</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>1746552</v>
+        <v>1750597</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>898302</v>
+        <v>898295</v>
       </c>
     </row>
     <row r="40">
